--- a/statistiche/RandomForestCounterfactuals/PU.xlsx
+++ b/statistiche/RandomForestCounterfactuals/PU.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T69"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,25 +1023,25 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1157,40 +1157,40 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -1254,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1318,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>1</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1425,25 +1425,25 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1452,22 +1452,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1522,22 +1522,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1559,10 +1559,10 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1571,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1595,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1656,22 +1656,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1790,22 +1790,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1827,10 +1827,10 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1854,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1973,37 +1973,37 @@
         <v>1</v>
       </c>
       <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>3</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2058,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2095,13 +2095,13 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
@@ -2110,13 +2110,13 @@
         <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2192,22 +2192,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -2244,7 +2244,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2253,25 +2253,25 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
@@ -2326,22 +2326,22 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2396,22 +2396,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2457,16 +2457,16 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
@@ -2475,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
@@ -2530,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
@@ -2567,10 +2567,10 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2594,22 +2594,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2664,22 +2664,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2725,25 +2725,25 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>3</v>
       </c>
-      <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2771,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>6</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2798,22 +2798,22 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
@@ -2835,22 +2835,22 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -2862,22 +2862,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1</v>
@@ -2932,22 +2932,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
@@ -2969,13 +2969,13 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -2984,34 +2984,34 @@
         <v>6</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1</v>
@@ -3066,22 +3066,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>6</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3127,25 +3127,25 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>6</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>1</v>
@@ -3200,22 +3200,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
@@ -3237,13 +3237,13 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3261,25 +3261,25 @@
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1</v>
@@ -3334,22 +3334,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>8</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1</v>
@@ -3404,22 +3404,22 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>8</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -3468,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>24</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>1</v>
@@ -3538,22 +3538,22 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>8</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -3608,22 +3608,22 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="2" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
         <v>26</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>9</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>1</v>
@@ -3678,22 +3678,22 @@
         <v>0</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" s="2" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3730,34 +3730,34 @@
         <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>9</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>9</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="2" t="n">
         <v>1</v>
@@ -3812,22 +3812,22 @@
         <v>0</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2" t="n">
         <v>10</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>28</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>9</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>1</v>
@@ -3882,22 +3882,22 @@
         <v>0</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="2" t="n">
         <v>11</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
@@ -3925,7 +3925,7 @@
         <v>29</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>1</v>
@@ -3952,22 +3952,22 @@
         <v>0</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>30</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>10</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>1</v>
@@ -4022,22 +4022,22 @@
         <v>0</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
@@ -4059,22 +4059,22 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4086,22 +4086,22 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>1</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2" t="n">
         <v>13</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" s="2" t="inlineStr">
         <is>
@@ -4193,7 +4193,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4217,22 +4217,22 @@
         <v>1</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
         <v>13</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>32</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>10</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>1</v>
@@ -4290,22 +4290,22 @@
         <v>0</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>10</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4354,22 +4354,22 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>14</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R58" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>33</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>11</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>1</v>
@@ -4424,22 +4424,22 @@
         <v>0</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -4470,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4488,22 +4488,22 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
       </c>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         <v>34</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>0</v>
@@ -4546,7 +4546,7 @@
         <v>12</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>1</v>
@@ -4558,22 +4558,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="inlineStr">
         <is>
@@ -4595,10 +4595,10 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -4607,10 +4607,10 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4622,22 +4622,22 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>14</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>35</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>13</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1</v>
@@ -4692,31 +4692,31 @@
         <v>0</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="2" t="n">
         <v>14</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="inlineStr">
         <is>
           <t>regular</t>
         </is>
       </c>
-      <c r="S63" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr">
@@ -4726,66 +4726,72 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" t="n">
-        <v>13</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>17</v>
-      </c>
-      <c r="N64" t="n">
-        <v>6</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1</v>
-      </c>
-      <c r="P64" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
         </is>
       </c>
     </row>
@@ -4796,10 +4802,10 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -4814,7 +4820,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>1</v>
@@ -4826,302 +4832,104 @@
         <v>0</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr">
+        <is>
+          <t>Original</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="N65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S65" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
-        <v>7</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>14</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>14</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>0</v>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>PU</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="H67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2" t="n">
+      <c r="H66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="N67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>deviant</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr">
-        <is>
-          <t>Original</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>14</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>15</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>Counterfactual</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>PU</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="S69" s="2" t="inlineStr">
-        <is>
-          <t>regular</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="inlineStr">
+      <c r="N66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>regular</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr">
         <is>
           <t>Original</t>
         </is>
